--- a/web/studio/ASC.Web.Studio/Products/Files/DocStore/startdocuments/ru-RU/my/ONLYOFFICE Sample Spreadsheets.xlsx
+++ b/web/studio/ASC.Web.Studio/Products/Files/DocStore/startdocuments/ru-RU/my/ONLYOFFICE Sample Spreadsheets.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -36,76 +36,76 @@
     <t>США</t>
   </si>
   <si>
+    <t>Великобритания</t>
+  </si>
+  <si>
     <t>Китай</t>
   </si>
   <si>
-    <t>Великобритания</t>
-  </si>
-  <si>
     <t>Россия</t>
   </si>
   <si>
+    <t>Германия</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
     <t xml:space="preserve">Южная Корея</t>
   </si>
   <si>
-    <t>Германия</t>
-  </si>
-  <si>
-    <t>Франция</t>
-  </si>
-  <si>
     <t>Италия</t>
   </si>
   <si>
+    <t>Австралия</t>
+  </si>
+  <si>
+    <t>Голландия</t>
+  </si>
+  <si>
     <t>Венгрия</t>
   </si>
   <si>
-    <t>Австралия</t>
-  </si>
-  <si>
-    <t>Япония</t>
+    <t>Бразилия</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Кения</t>
+  </si>
+  <si>
+    <t>Ямайка</t>
+  </si>
+  <si>
+    <t>Хорватия</t>
+  </si>
+  <si>
+    <t>Куба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новая Зеландия</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>Узбекистан</t>
   </si>
   <si>
     <t>Казахстан</t>
   </si>
   <si>
-    <t>Нидерланды</t>
-  </si>
-  <si>
-    <t>Украина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новая Зеландия</t>
-  </si>
-  <si>
-    <t>Куба</t>
+    <t>Колумбия</t>
+  </si>
+  <si>
+    <t>Швейцария</t>
   </si>
   <si>
     <t>Иран</t>
-  </si>
-  <si>
-    <t>Ямайка</t>
-  </si>
-  <si>
-    <t>Чехия</t>
-  </si>
-  <si>
-    <t>КНДР</t>
-  </si>
-  <si>
-    <t>Испания</t>
-  </si>
-  <si>
-    <t>Бразилия</t>
-  </si>
-  <si>
-    <t>ЮАР</t>
-  </si>
-  <si>
-    <t>Эфиопия</t>
-  </si>
-  <si>
-    <t>Хорватия</t>
   </si>
   <si>
     <t>Всего:</t>
@@ -117,62 +117,62 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="8"/>
       <scheme val="none"/>
-      <sz val="8"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
       <scheme val="none"/>
-      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
       <scheme val="none"/>
-      <sz val="12"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <color indexed="64"/>
-      <name val="Calibri"/>
+      <sz val="13"/>
       <scheme val="none"/>
-      <sz val="13"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
       <color indexed="64"/>
-      <name val="Calibri"/>
+      <sz val="13"/>
       <scheme val="none"/>
-      <sz val="13"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
       <color indexed="64"/>
-      <name val="Arial"/>
+      <sz val="12"/>
       <scheme val="none"/>
-      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color rgb="FF434343"/>
-      <name val="Arial"/>
+      <sz val="12"/>
       <scheme val="none"/>
-      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
       <color rgb="FF434343"/>
-      <name val="Arial"/>
+      <sz val="12"/>
       <scheme val="none"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="9">
@@ -208,8 +208,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403e-002"/>
-        <bgColor theme="0" tint="-4.9989318521683403e-002"/>
+        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
       </patternFill>
     </fill>
     <fill>
@@ -359,10 +359,10 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyFont="1" applyFill="1"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -476,11 +476,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -497,6 +497,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr/>
               <a:t>Общий медальный зачет</a:t>
             </a:r>
             <a:endParaRPr/>
@@ -509,14 +510,14 @@
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
-        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!D2</c:f>
+              <c:f>Лист1!D2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -533,156 +534,155 @@
               <a:srgbClr val="2DA2BF"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!C3:C27</c:f>
+              <c:f>Лист1!C3:C27</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>США</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Великобритания</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Китай</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Великобритания</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Россия</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Южная Корея</c:v>
+                  <c:v>Германия</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Германия</c:v>
+                  <c:v>Япония</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Франция</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v xml:space="preserve">Южная Корея</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Италия</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Венгрия</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Австралия</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Япония</c:v>
+                  <c:v>Голландия</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Венгрия</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Бразилия</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Испания</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Кения</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ямайка</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Хорватия</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Куба</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v xml:space="preserve">Новая Зеландия</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Канада</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Узбекистан</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Казахстан</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Нидерланды</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Украина</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Новая Зеландия</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Куба</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>Колумбия</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Швейцария</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Иран</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ямайка</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Чехия</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>КНДР</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Испания</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Бразилия</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ЮАР</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Эфиопия</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Хорватия</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!D3:D27</c:f>
+              <c:f>Лист1!D3:D27</c:f>
               <c:numCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4</c:v>
@@ -691,7 +691,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
@@ -714,7 +714,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!E2</c:f>
+              <c:f>Лист1!E2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -731,165 +731,164 @@
               <a:srgbClr val="DA1F28"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!C3:C27</c:f>
+              <c:f>Лист1!C3:C27</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>США</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Великобритания</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Китай</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Великобритания</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Россия</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Южная Корея</c:v>
+                  <c:v>Германия</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Германия</c:v>
+                  <c:v>Япония</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Франция</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v xml:space="preserve">Южная Корея</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Италия</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Венгрия</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Австралия</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Япония</c:v>
+                  <c:v>Голландия</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Венгрия</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Бразилия</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Испания</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Кения</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ямайка</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Хорватия</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Куба</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v xml:space="preserve">Новая Зеландия</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Канада</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Узбекистан</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Казахстан</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Нидерланды</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Украина</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Новая Зеландия</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Куба</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>Колумбия</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Швейцария</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Иран</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ямайка</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Чехия</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>КНДР</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Испания</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Бразилия</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ЮАР</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Эфиопия</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Хорватия</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!E3:E27</c:f>
+              <c:f>Лист1!E3:E27</c:f>
               <c:numCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5</c:v>
@@ -898,7 +897,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1</c:v>
@@ -912,7 +911,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!F2</c:f>
+              <c:f>Лист1!F2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -929,189 +928,188 @@
               <a:srgbClr val="EB641B"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!C3:C27</c:f>
+              <c:f>Лист1!C3:C27</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>США</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Великобритания</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Китай</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Великобритания</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Россия</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Южная Корея</c:v>
+                  <c:v>Германия</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Германия</c:v>
+                  <c:v>Япония</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Франция</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v xml:space="preserve">Южная Корея</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Италия</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Венгрия</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Австралия</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Япония</c:v>
+                  <c:v>Голландия</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Венгрия</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Бразилия</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Испания</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Кения</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ямайка</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Хорватия</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Куба</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v xml:space="preserve">Новая Зеландия</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Канада</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Узбекистан</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Казахстан</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Нидерланды</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Украина</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Новая Зеландия</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Куба</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>Колумбия</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Швейцария</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Иран</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ямайка</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Чехия</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>КНДР</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Испания</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Бразилия</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ЮАР</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Эфиопия</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Хорватия</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!F3:F27</c:f>
+              <c:f>Лист1!F3:F27</c:f>
               <c:numCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="7622"/>
         <c:axId val="5026"/>
@@ -1122,7 +1120,10 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:majorGridlines/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1132,6 +1133,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr/>
                   <a:t>Страны</a:t>
                 </a:r>
                 <a:endParaRPr/>
@@ -1141,14 +1143,13 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="5026"/>
         <c:crossesAt val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
@@ -1157,7 +1158,10 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:majorGridlines/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1167,6 +1171,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr/>
                   <a:t>Медали</a:t>
                 </a:r>
                 <a:endParaRPr/>
@@ -1176,12 +1181,12 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="7622"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1191,15 +1196,24 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+  </c:spPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1216,6 +1230,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr/>
               <a:t>Число золотых и серебряных медалей</a:t>
             </a:r>
             <a:endParaRPr/>
@@ -1228,14 +1243,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
-        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!D2</c:f>
+              <c:f>Лист1!D2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,38 +1267,48 @@
               <a:srgbClr val="2DA2BF"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!C3:C12</c:f>
+              <c:f>Лист1!C3:C12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>США</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Великобритания</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Китай</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Великобритания</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Россия</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Южная Корея</c:v>
+                  <c:v>Германия</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Германия</c:v>
+                  <c:v>Япония</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Франция</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v xml:space="preserve">Южная Корея</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Италия</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Венгрия</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Австралия</c:v>
@@ -1291,51 +1316,40 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!D3:D12</c:f>
+              <c:f>Лист1!D3:D12</c:f>
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1361,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!E2</c:f>
+              <c:f>Лист1!E2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1364,38 +1378,48 @@
               <a:srgbClr val="DA1F28"/>
             </a:solidFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!C3:C12</c:f>
+              <c:f>Лист1!C3:C12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>США</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Великобритания</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Китай</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Великобритания</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Россия</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Южная Корея</c:v>
+                  <c:v>Германия</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Германия</c:v>
+                  <c:v>Япония</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Франция</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v xml:space="preserve">Южная Корея</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Италия</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Венгрия</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Австралия</c:v>
@@ -1403,51 +1427,40 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!E3:E12</c:f>
+              <c:f>Лист1!E3:E12</c:f>
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,12 +1469,12 @@
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
         <c:axId val="3375"/>
@@ -1473,7 +1486,10 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:majorGridlines/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1483,6 +1499,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr/>
                   <a:t>10 лучших стран</a:t>
                 </a:r>
                 <a:endParaRPr/>
@@ -1492,14 +1509,13 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="13466"/>
         <c:crossesAt val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
@@ -1508,7 +1524,10 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:majorGridlines/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1518,6 +1537,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr/>
                   <a:t>Медали</a:t>
                 </a:r>
                 <a:endParaRPr/>
@@ -1527,12 +1547,12 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="3375"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1542,6 +1562,15 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+  </c:spPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
@@ -1556,14 +1585,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>581021</xdr:colOff>
+      <xdr:colOff>581020</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>85721</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="diagram"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1580,20 +1611,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9522</xdr:colOff>
+      <xdr:colOff>9521</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:colOff>314323</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="diagram"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1609,16 +1642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504822</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9519</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2238372</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9519</xdr:rowOff>
+      <xdr:rowOff>38000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,9 +1663,9 @@
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="504822" y="19049"/>
-          <a:ext cx="6619872" cy="914395"/>
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="1200150" y="0"/>
+          <a:ext cx="2133597" cy="961925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,14 +1862,14 @@
         <v>46</v>
       </c>
       <c r="E3" s="14">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" s="17">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G3" s="18">
         <f>SUM(D3:F3)</f>
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1854,17 +1887,17 @@
         <v>7</v>
       </c>
       <c r="D4" s="21">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="22">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="23">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" s="24">
         <f>SUM(D4:F4)</f>
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1882,17 +1915,17 @@
         <v>8</v>
       </c>
       <c r="D5" s="21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="23">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="24">
         <f>SUM(D5:F5)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1906,17 +1939,17 @@
         <v>9</v>
       </c>
       <c r="D6" s="21">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="22">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F6" s="23">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G6" s="24">
         <f>SUM(D6:F6)</f>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1930,17 +1963,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G7" s="24">
         <f>SUM(D7:F7)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1958,17 +1991,17 @@
         <v>11</v>
       </c>
       <c r="D8" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="22">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F8" s="23">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G8" s="24">
         <f>SUM(D8:F8)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1986,17 +2019,17 @@
         <v>12</v>
       </c>
       <c r="D9" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="22">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="24">
         <f>SUM(D9:F9)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2014,17 +2047,17 @@
         <v>13</v>
       </c>
       <c r="D10" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="22">
+        <v>3</v>
+      </c>
+      <c r="F10" s="23">
         <v>9</v>
-      </c>
-      <c r="F10" s="23">
-        <v>11</v>
       </c>
       <c r="G10" s="24">
         <f>SUM(D10:F10)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2045,14 +2078,14 @@
         <v>8</v>
       </c>
       <c r="E11" s="22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="24">
         <f>SUM(D11:F11)</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2070,17 +2103,17 @@
         <v>15</v>
       </c>
       <c r="D12" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="24">
         <f>SUM(D12:F12)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2098,17 +2131,17 @@
         <v>16</v>
       </c>
       <c r="D13" s="21">
+        <v>8</v>
+      </c>
+      <c r="E13" s="22">
         <v>7</v>
       </c>
-      <c r="E13" s="22">
-        <v>14</v>
-      </c>
       <c r="F13" s="23">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G13" s="24">
         <f>SUM(D13:F13)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2126,17 +2159,17 @@
         <v>17</v>
       </c>
       <c r="D14" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="24">
         <f>SUM(D14:F14)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2154,17 +2187,17 @@
         <v>18</v>
       </c>
       <c r="D15" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="22">
         <v>6</v>
       </c>
       <c r="F15" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="24">
         <f>SUM(D15:F15)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2182,17 +2215,17 @@
         <v>19</v>
       </c>
       <c r="D16" s="21">
+        <v>7</v>
+      </c>
+      <c r="E16" s="22">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23">
         <v>6</v>
-      </c>
-      <c r="E16" s="22">
-        <v>5</v>
-      </c>
-      <c r="F16" s="23">
-        <v>9</v>
       </c>
       <c r="G16" s="24">
         <f>SUM(D16:F16)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2213,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17" s="24">
         <f>SUM(D17:F17)</f>
@@ -2238,17 +2271,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="22">
         <v>3</v>
       </c>
       <c r="F18" s="23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="24">
         <f>SUM(D18:F18)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2266,17 +2299,17 @@
         <v>22</v>
       </c>
       <c r="D19" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="24">
         <f>SUM(D19:F19)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2294,17 +2327,17 @@
         <v>23</v>
       </c>
       <c r="D20" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
       </c>
       <c r="G20" s="24">
         <f>SUM(D20:F20)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2325,14 +2358,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F21" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="24">
         <f>SUM(D21:F21)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2353,14 +2386,14 @@
         <v>4</v>
       </c>
       <c r="E22" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="23">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G22" s="24">
         <f>SUM(D22:F22)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2378,17 +2411,17 @@
         <v>26</v>
       </c>
       <c r="D23" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F23" s="23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G23" s="24">
         <f>SUM(D23:F23)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2440,11 +2473,11 @@
         <v>2</v>
       </c>
       <c r="F25" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="24">
         <f>SUM(D25:F25)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2465,10 +2498,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="24">
         <f>SUM(D26:F26)</f>
@@ -2496,11 +2529,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="24">
         <f>SUM(D27:F27)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2522,19 +2555,19 @@
       </c>
       <c r="D28" s="32">
         <f>SUM(D3:D27)</f>
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E28" s="32">
         <f>SUM(E3:E27)</f>
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F28" s="32">
         <f>SUM(F3:F27)</f>
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G28" s="33">
         <f>SUM(G3:G27)</f>
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
